--- a/11B/代码/data.xlsx
+++ b/11B/代码/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11480" yWindow="-21140" windowWidth="19200" windowHeight="21140" tabRatio="876"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="33600" windowHeight="20440" tabRatio="876"/>
   </bookViews>
   <sheets>
     <sheet name="全市交通路口节点数据" sheetId="1" r:id="rId1"/>
@@ -781,8 +781,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="39">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1016,7 +1028,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="39">
+  <cellStyles count="43">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -1037,6 +1049,8 @@
     <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1056,6 +1070,8 @@
     <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1336,7 +1352,7 @@
   <dimension ref="A1:O583"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -19071,8 +19087,8 @@
   </sheetPr>
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -19766,7 +19782,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
